--- a/XAppChurnFeedbackSurvey.xlsx
+++ b/XAppChurnFeedbackSurvey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A12CCE-5E67-4960-9559-79892C39BFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BA756D-BC2E-4505-BAE8-2CF9DE3C2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="24237" r:id="rId4"/>
-    <pivotCache cacheId="24238" r:id="rId5"/>
-    <pivotCache cacheId="24239" r:id="rId6"/>
+    <pivotCache cacheId="17761" r:id="rId4"/>
+    <pivotCache cacheId="17762" r:id="rId5"/>
+    <pivotCache cacheId="17763" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -624,7 +624,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -686,77 +686,77 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Tahoma"/>
+        <name val="Arial"/>
       </font>
     </dxf>
   </dxfs>
@@ -2016,7 +2016,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79FE5190-A5E3-487A-9C70-58F7D23509AB}" name="PivotTable1" cacheId="24237" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79FE5190-A5E3-487A-9C70-58F7D23509AB}" name="PivotTable1" cacheId="17761" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField name="Purhcased addons" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
@@ -2135,7 +2135,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{617F2735-724D-490F-82BF-0FA516923511}" name="PivotTable3" cacheId="24238" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{617F2735-724D-490F-82BF-0FA516923511}" name="PivotTable3" cacheId="17762" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A10:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E1CE1B8-4C1D-44E9-A505-F034F21B57DE}" name="PivotTable1" cacheId="24239" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E1CE1B8-4C1D-44E9-A505-F034F21B57DE}" name="PivotTable1" cacheId="17763" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K2:S12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -3878,14 +3878,15 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="9" width="18.85546875" customWidth="1"/>
+    <col min="2" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
